--- a/Data/EC/NIT-9004142847.xlsx
+++ b/Data/EC/NIT-9004142847.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A558B9-3DA4-4547-BAD5-A12DBF035637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE885F6F-4105-4F6C-95E6-CF1F65548E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{92C4FD8A-E35F-434D-90D7-A87F276FB828}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9C33398A-04C2-4DED-91FC-B0B39D8BB88B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="79">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,187 +65,181 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73569593</t>
+  </si>
+  <si>
+    <t>ISMAEL JOSE CABARCAS CASTRO</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1128060297</t>
+  </si>
+  <si>
+    <t>WAGNER LEONEL BLANCO ZORNOSA</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>30840523</t>
+  </si>
+  <si>
+    <t>ANGELA MARGARITA CASTILLA CHAVARRIAGA</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>45507246</t>
+  </si>
+  <si>
+    <t>ALCIRA PIÑERES FUENTES</t>
+  </si>
+  <si>
+    <t>32937848</t>
+  </si>
+  <si>
+    <t>PAMELA ANDREA MANJARRES PACHECO</t>
+  </si>
+  <si>
+    <t>1047500766</t>
+  </si>
+  <si>
+    <t>OSMIRO JOSE VELASQUEZ HERRERA</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>1047468256</t>
   </si>
   <si>
     <t>SHARI GONZALEZ CAIROZA</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
     <t>2305</t>
   </si>
   <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>73569593</t>
-  </si>
-  <si>
-    <t>ISMAEL JOSE CABARCAS CASTRO</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1128060297</t>
-  </si>
-  <si>
-    <t>WAGNER LEONEL BLANCO ZORNOSA</t>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>1006615416</t>
+  </si>
+  <si>
+    <t>WILSON CAMILO ATENCIA ZURITA</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>1143376421</t>
+  </si>
+  <si>
+    <t>WINNER ANDRES CARRILLO GUZMAN</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
   </si>
   <si>
     <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>30840523</t>
-  </si>
-  <si>
-    <t>ANGELA MARGARITA CASTILLA CHAVARRIAGA</t>
-  </si>
-  <si>
-    <t>45507246</t>
-  </si>
-  <si>
-    <t>ALCIRA PIÑERES FUENTES</t>
-  </si>
-  <si>
-    <t>32937848</t>
-  </si>
-  <si>
-    <t>PAMELA ANDREA MANJARRES PACHECO</t>
-  </si>
-  <si>
-    <t>1082875273</t>
-  </si>
-  <si>
-    <t>MILDREY SEPULVEDA GOMEZ</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1047500766</t>
-  </si>
-  <si>
-    <t>OSMIRO JOSE VELASQUEZ HERRERA</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>1143376421</t>
-  </si>
-  <si>
-    <t>WINNER ANDRES CARRILLO GUZMAN</t>
-  </si>
-  <si>
-    <t>1006615416</t>
-  </si>
-  <si>
-    <t>WILSON CAMILO ATENCIA ZURITA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -344,7 +338,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -357,9 +353,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -559,23 +553,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,10 +597,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,7 +653,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCF3F01-03DB-5B72-A72A-41C23F8E16A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD221406-2AAC-D233-7FAD-2F56DF5D1C17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,8 +1004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA0618A-16DB-4ED9-8231-C844467870BC}">
-  <dimension ref="B2:J139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375EF8BF-33C8-4052-8A1C-84CFC7F365F2}">
+  <dimension ref="B2:J119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1035,7 +1029,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1080,7 +1074,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1112,12 +1106,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5631818</v>
+        <v>4691018</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1128,14 +1122,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="5">
         <v>41</v>
@@ -1165,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1188,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>45200</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1211,10 +1205,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1225,19 +1219,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>56000</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1400000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1248,19 +1242,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>45200</v>
+        <v>64000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1600000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1271,19 +1265,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>45200</v>
+        <v>56000</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1400000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1294,19 +1288,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>45200</v>
+        <v>64000</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1600000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1317,19 +1311,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>56000</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>1400000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1340,19 +1334,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>64000</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>1600000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1363,19 +1357,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>33600</v>
+        <v>44000</v>
       </c>
       <c r="G24" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1386,19 +1380,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>56000</v>
+        <v>45200</v>
       </c>
       <c r="G25" s="18">
-        <v>1400000</v>
+        <v>1130000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1409,19 +1403,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>1400000</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1432,10 +1426,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>26</v>
@@ -1455,19 +1449,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="G28" s="18">
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1478,19 +1472,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>56000</v>
+        <v>44000</v>
       </c>
       <c r="G29" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1501,19 +1495,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>56000</v>
+        <v>45200</v>
       </c>
       <c r="G30" s="18">
-        <v>1400000</v>
+        <v>1130000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1524,19 +1518,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>1400000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1547,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>56000</v>
@@ -1570,19 +1564,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="G33" s="18">
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1593,19 +1587,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>1400000</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1616,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
         <v>56000</v>
@@ -1639,19 +1633,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F36" s="18">
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="G36" s="18">
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1662,19 +1656,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F37" s="18">
-        <v>56000</v>
+        <v>44000</v>
       </c>
       <c r="G37" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1685,19 +1679,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>1400000</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1708,13 +1702,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18">
         <v>56000</v>
@@ -1731,19 +1725,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="G40" s="18">
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1754,19 +1748,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
-        <v>56000</v>
+        <v>44000</v>
       </c>
       <c r="G41" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1777,19 +1771,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>1400000</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1800,13 +1794,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F43" s="18">
         <v>56000</v>
@@ -1823,19 +1817,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F44" s="18">
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="G44" s="18">
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1846,19 +1840,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F45" s="18">
-        <v>56000</v>
+        <v>44000</v>
       </c>
       <c r="G45" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1869,19 +1863,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F46" s="18">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>1400000</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1892,13 +1886,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F47" s="18">
         <v>56000</v>
@@ -1915,19 +1909,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F48" s="18">
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="G48" s="18">
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1938,19 +1932,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F49" s="18">
-        <v>64000</v>
+        <v>44000</v>
       </c>
       <c r="G49" s="18">
-        <v>1600000</v>
+        <v>1100000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1961,19 +1955,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
-        <v>64000</v>
+        <v>40000</v>
       </c>
       <c r="G50" s="18">
-        <v>1600000</v>
+        <v>1000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1984,19 +1978,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F51" s="18">
-        <v>64000</v>
+        <v>56000</v>
       </c>
       <c r="G51" s="18">
-        <v>1600000</v>
+        <v>1400000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2007,13 +2001,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
         <v>64000</v>
@@ -2030,19 +2024,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
-        <v>64000</v>
+        <v>44000</v>
       </c>
       <c r="G53" s="18">
-        <v>1600000</v>
+        <v>1100000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2053,19 +2047,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>64000</v>
+        <v>40000</v>
       </c>
       <c r="G54" s="18">
-        <v>1600000</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2076,19 +2070,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
-        <v>64000</v>
+        <v>56000</v>
       </c>
       <c r="G55" s="18">
-        <v>1600000</v>
+        <v>1400000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2099,13 +2093,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>64000</v>
@@ -2122,19 +2116,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>64000</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="18">
-        <v>1600000</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2145,19 +2139,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
-        <v>64000</v>
+        <v>56000</v>
       </c>
       <c r="G58" s="18">
-        <v>1600000</v>
+        <v>1400000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2168,13 +2162,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
         <v>64000</v>
@@ -2191,19 +2185,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F60" s="18">
-        <v>64000</v>
+        <v>44000</v>
       </c>
       <c r="G60" s="18">
-        <v>1600000</v>
+        <v>1100000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2214,19 +2208,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F61" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G61" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2237,19 +2231,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F62" s="18">
-        <v>44000</v>
+        <v>56000</v>
       </c>
       <c r="G62" s="18">
-        <v>1100000</v>
+        <v>1400000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2260,13 +2254,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" s="18">
         <v>44000</v>
@@ -2283,19 +2277,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F64" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2306,19 +2300,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F65" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2329,19 +2323,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F66" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G66" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2352,19 +2346,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2375,19 +2369,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G68" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2398,19 +2392,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F69" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G69" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2421,19 +2415,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F70" s="18">
-        <v>45200</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2444,19 +2438,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F71" s="18">
-        <v>45200</v>
+        <v>40000</v>
       </c>
       <c r="G71" s="18">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2467,19 +2461,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F72" s="18">
-        <v>28800</v>
+        <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2490,19 +2484,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F73" s="18">
-        <v>48000</v>
+        <v>45200</v>
       </c>
       <c r="G73" s="18">
-        <v>1200000</v>
+        <v>1130000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2513,19 +2507,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F74" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2536,19 +2530,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F75" s="18">
-        <v>48000</v>
+        <v>45200</v>
       </c>
       <c r="G75" s="18">
-        <v>1200000</v>
+        <v>1130000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2559,19 +2553,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F76" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G76" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2582,19 +2576,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F77" s="18">
-        <v>48000</v>
+        <v>45200</v>
       </c>
       <c r="G77" s="18">
-        <v>1200000</v>
+        <v>1130000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2605,19 +2599,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F78" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G78" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2628,19 +2622,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F79" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G79" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2651,19 +2645,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F80" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G80" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2674,19 +2668,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F81" s="18">
-        <v>48000</v>
+        <v>56000</v>
       </c>
       <c r="G81" s="18">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2697,19 +2691,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F82" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G82" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2720,19 +2714,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F83" s="18">
-        <v>48000</v>
+        <v>46400</v>
       </c>
       <c r="G83" s="18">
-        <v>1200000</v>
+        <v>1130000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2743,19 +2737,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F84" s="18">
-        <v>48000</v>
+        <v>56000</v>
       </c>
       <c r="G84" s="18">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2766,19 +2760,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="F85" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G85" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2789,19 +2783,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D86" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E86" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F86" s="18">
-        <v>48000</v>
+        <v>46400</v>
       </c>
       <c r="G86" s="18">
-        <v>1200000</v>
+        <v>1130000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2812,19 +2806,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D87" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E87" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F87" s="18">
-        <v>48000</v>
+        <v>56000</v>
       </c>
       <c r="G87" s="18">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2835,19 +2829,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D88" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F88" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G88" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2858,19 +2852,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F89" s="18">
-        <v>48000</v>
+        <v>45200</v>
       </c>
       <c r="G89" s="18">
-        <v>1200000</v>
+        <v>1130000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2881,19 +2875,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F90" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G90" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2904,19 +2898,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F91" s="18">
-        <v>48000</v>
+        <v>56000</v>
       </c>
       <c r="G91" s="18">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2927,16 +2921,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F92" s="18">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="G92" s="18">
         <v>1000000</v>
@@ -2950,19 +2944,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F93" s="18">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="G93" s="18">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2973,13 +2967,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F94" s="18">
         <v>40000</v>
@@ -2996,19 +2990,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D95" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="G95" s="18">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3019,13 +3013,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F96" s="18">
         <v>40000</v>
@@ -3042,19 +3036,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F97" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G97" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3065,19 +3059,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F98" s="18">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="G98" s="18">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3088,13 +3082,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F99" s="18">
         <v>40000</v>
@@ -3111,19 +3105,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F100" s="18">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="G100" s="18">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3134,13 +3128,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F101" s="18">
         <v>40000</v>
@@ -3157,19 +3151,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F102" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G102" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3180,19 +3174,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F103" s="18">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="G103" s="18">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3203,13 +3197,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F104" s="18">
         <v>40000</v>
@@ -3226,19 +3220,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F105" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G105" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3249,19 +3243,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F106" s="18">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="G106" s="18">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3272,13 +3266,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F107" s="18">
         <v>40000</v>
@@ -3295,19 +3289,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="F108" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G108" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3318,19 +3312,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F109" s="18">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="G109" s="18">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3341,13 +3335,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F110" s="18">
         <v>40000</v>
@@ -3364,19 +3358,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F111" s="18">
-        <v>40000</v>
+        <v>33600</v>
       </c>
       <c r="G111" s="18">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3387,16 +3381,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F112" s="18">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="G112" s="18">
         <v>1000000</v>
@@ -3406,516 +3400,56 @@
       <c r="J112" s="20"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F113" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E114" s="16" t="s">
+      <c r="B113" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F114" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E115" s="16" t="s">
+      <c r="D113" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F115" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G115" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F116" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G116" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F117" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G117" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="E113" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F113" s="24">
+        <v>36000</v>
+      </c>
+      <c r="G113" s="24">
+        <v>1500000</v>
+      </c>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="26"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F118" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G118" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="B118" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="32"/>
+      <c r="H118" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F119" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G119" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F120" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G120" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F121" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G121" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F122" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G122" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F123" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G123" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F124" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G124" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F125" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G125" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F126" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G126" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F127" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G127" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F128" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G128" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F129" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G129" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G130" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F131" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G131" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F132" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G132" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E133" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F133" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G133" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="26"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C138" s="32"/>
-      <c r="H138" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="32" t="s">
+      <c r="B119" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C119" s="32"/>
+      <c r="H119" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C139" s="32"/>
-      <c r="H139" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="H118:J118"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
